--- a/example_data/EPA/label_corrected/007969-00197-20160112_2018-12-08_052318.xlsx
+++ b/example_data/EPA/label_corrected/007969-00197-20160112_2018-12-08_052318.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PPE || 18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>ppe || 18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Env warning - water || Application instructions</t>
+          <t>application instructions || env warning - water</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chemigation || Application Instructions</t>
+          <t>application instructions || chemigation</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
